--- a/stock/doc/sh600216.xlsx
+++ b/stock/doc/sh600216.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="20910"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="100" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="1360" yWindow="180" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>quantity</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -39,10 +39,6 @@
   </si>
   <si>
     <t>sh600216</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>bonus</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -77,16 +73,45 @@
     <t>share-equal</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>liability</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Owners' Equity</t>
+  </si>
+  <si>
+    <t>transaction</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>平均资金占用量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大资金占用量</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>周转次数</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>tax</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
+    <numFmt numFmtId="178" formatCode="0.00_ "/>
+    <numFmt numFmtId="179" formatCode="#,##0.00_ "/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -135,8 +160,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FF333333"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -167,8 +228,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF008000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -185,23 +264,34 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -211,12 +301,61 @@
     <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="178" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="7" fillId="8" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="179" fontId="7" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="6" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="8" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="8" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="9" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="8" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="13">
     <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="超链接" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="超链接" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="访问过的超链接" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="访问过的超链接" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="普通" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -546,643 +685,885 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G30" sqref="G30"/>
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="19.5" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="2" width="34.83203125" customWidth="1"/>
-    <col min="3" max="3" width="17.1640625" customWidth="1"/>
-    <col min="4" max="4" width="27.5" customWidth="1"/>
-    <col min="8" max="8" width="15.1640625" style="13" customWidth="1"/>
+    <col min="1" max="1" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="5" max="5" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.5" customWidth="1"/>
+    <col min="7" max="8" width="19.5" style="23"/>
+    <col min="9" max="9" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="19.5" style="11"/>
+    <col min="11" max="11" width="16.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17">
-      <c r="A2" s="5" t="s">
+    <row r="2" spans="1:11" ht="33" customHeight="1">
+      <c r="A2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="31" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="31" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H2" s="34" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" s="10" t="s">
+      <c r="K2" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="17">
-      <c r="A3" s="3">
-        <v>2000</v>
-      </c>
-      <c r="B3" s="3">
+    </row>
+    <row r="3" spans="1:11" ht="17">
+      <c r="A3" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>10.46</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="15">
+        <f>A3*B3</f>
+        <v>2000</v>
+      </c>
+      <c r="E3" s="1">
         <f>A3*C3*B3</f>
         <v>20920</v>
       </c>
-      <c r="F3">
-        <f>D3</f>
+      <c r="F3" s="1"/>
+      <c r="G3" s="24">
+        <f>E3</f>
         <v>20920</v>
       </c>
-      <c r="G3" s="11">
-        <f>A3*B3</f>
-        <v>2000</v>
-      </c>
-      <c r="H3" s="14">
-        <f>F3/C3</f>
+      <c r="H3" s="25">
+        <f>A3*B3*C3</f>
+        <v>20920</v>
+      </c>
+      <c r="I3" s="12">
+        <v>0</v>
+      </c>
+      <c r="J3" s="14">
+        <f>H3-G3-I3</f>
+        <v>0</v>
+      </c>
+      <c r="K3" s="10">
+        <f>G3/C3</f>
         <v>1999.9999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17">
-      <c r="A4" s="3">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="3">
+    <row r="4" spans="1:11" ht="17">
+      <c r="A4" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="1">
         <v>1</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <v>10.77</v>
       </c>
-      <c r="D4" s="3">
-        <f t="shared" ref="D4:D21" si="0">A4*C4*B4</f>
+      <c r="D4" s="15">
+        <f>A4*B4+D3</f>
+        <v>4000</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" ref="E4:E21" si="0">A4*C4*B4</f>
         <v>21540</v>
       </c>
-      <c r="E4">
-        <f>SUM(D$3:D4)-SUM(B$3:B4)*C4*A4</f>
+      <c r="F4" s="1"/>
+      <c r="G4" s="24">
+        <f>G3+E4</f>
+        <v>42460</v>
+      </c>
+      <c r="H4" s="25">
+        <f>SUM(B$3:B4)*A4*C4</f>
+        <v>43080</v>
+      </c>
+      <c r="I4" s="12">
+        <f>SUM(E$3:E4)-SUM(B$3:B4)*C4*A4</f>
         <v>-620</v>
       </c>
-      <c r="F4">
-        <f>SUM(D$3:D4)</f>
-        <v>42460</v>
-      </c>
-      <c r="G4" s="11">
-        <f>A4*B4+G3</f>
+      <c r="J4" s="14">
+        <f>G4-H4-I4</f>
+        <v>0</v>
+      </c>
+      <c r="K4" s="10">
+        <f t="shared" ref="K4:K21" si="1">G4/C4</f>
+        <v>3942.4326833797586</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" ht="17">
+      <c r="A5" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C5" s="1">
+        <v>10.45</v>
+      </c>
+      <c r="D5" s="15">
+        <f>A5*B5+D4</f>
+        <v>2000</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>-20900</v>
+      </c>
+      <c r="F5" s="1"/>
+      <c r="G5" s="24">
+        <f>G4+E5</f>
+        <v>21560</v>
+      </c>
+      <c r="H5" s="25">
+        <f>SUM(B$3:B5)*A5*C5</f>
+        <v>20900</v>
+      </c>
+      <c r="I5" s="12">
+        <f>SUM(E$3:E5)-SUM(B$3:B5)*C5*A5</f>
+        <v>660</v>
+      </c>
+      <c r="J5" s="14">
+        <f>G5-H5-I5</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="10">
+        <f t="shared" si="1"/>
+        <v>2063.1578947368421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" ht="17">
+      <c r="A6" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C6" s="1">
+        <v>10.14</v>
+      </c>
+      <c r="D6" s="16">
+        <f>A6*B6+D5</f>
+        <v>0</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>-20280</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" s="24">
+        <f>G5+E6</f>
+        <v>1280</v>
+      </c>
+      <c r="H6" s="25">
+        <f>SUM(B$3:B6)*A6*C6</f>
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <f>SUM(E$3:E6)-SUM(B$3:B6)*C6*A6</f>
+        <v>1280</v>
+      </c>
+      <c r="J6" s="14">
+        <f>G6-H6-I6</f>
+        <v>0</v>
+      </c>
+      <c r="K6" s="10">
+        <f t="shared" si="1"/>
+        <v>126.23274161735699</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" ht="17">
+      <c r="A7" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>1</v>
+      </c>
+      <c r="C7" s="1">
+        <v>10.44</v>
+      </c>
+      <c r="D7" s="16">
+        <f>A7*B7+D6</f>
+        <v>2000</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>20880</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" s="24">
+        <f>G6+E7</f>
+        <v>22160</v>
+      </c>
+      <c r="H7" s="25">
+        <f>SUM(B$3:B7)*A7*C7</f>
+        <v>20880</v>
+      </c>
+      <c r="I7" s="12">
+        <f>SUM(E$3:E7)-SUM(B$3:B7)*C7*A7</f>
+        <v>1280</v>
+      </c>
+      <c r="J7" s="14">
+        <f>G7-H7-I7</f>
+        <v>0</v>
+      </c>
+      <c r="K7" s="10">
+        <f t="shared" si="1"/>
+        <v>2122.6053639846746</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" ht="17">
+      <c r="A8" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>10.75</v>
+      </c>
+      <c r="D8" s="16">
+        <f>A8*B8+D7</f>
         <v>4000</v>
       </c>
-      <c r="H4" s="14">
-        <f>F4/C4</f>
-        <v>3942.4326833797586</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="17">
-      <c r="A5" s="3">
-        <v>2000</v>
-      </c>
-      <c r="B5" s="3">
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>21500</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" s="24">
+        <f>G7+E8</f>
+        <v>43660</v>
+      </c>
+      <c r="H8" s="25">
+        <f>SUM(B$3:B8)*A8*C8</f>
+        <v>43000</v>
+      </c>
+      <c r="I8" s="12">
+        <f>SUM(E$3:E8)-SUM(B$3:B8)*C8*A8</f>
+        <v>660</v>
+      </c>
+      <c r="J8" s="14">
+        <f>G8-H8-I8</f>
+        <v>0</v>
+      </c>
+      <c r="K8" s="10">
+        <f t="shared" si="1"/>
+        <v>4061.3953488372094</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" ht="17">
+      <c r="A9" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B9" s="1">
+        <v>1</v>
+      </c>
+      <c r="C9" s="1">
+        <v>11.07</v>
+      </c>
+      <c r="D9" s="16">
+        <f>A9*B9+D8</f>
+        <v>6000</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>22140</v>
+      </c>
+      <c r="F9" s="1"/>
+      <c r="G9" s="24">
+        <f>G8+E9</f>
+        <v>65800</v>
+      </c>
+      <c r="H9" s="25">
+        <f>SUM(B$3:B9)*A9*C9</f>
+        <v>66420</v>
+      </c>
+      <c r="I9" s="12">
+        <f>SUM(E$3:E9)-SUM(B$3:B9)*C9*A9</f>
+        <v>-620</v>
+      </c>
+      <c r="J9" s="14">
+        <f>G9-H9-I9</f>
+        <v>0</v>
+      </c>
+      <c r="K9" s="10">
+        <f t="shared" si="1"/>
+        <v>5943.9927732610658</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" ht="17">
+      <c r="A10" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="1">
         <v>-1</v>
       </c>
-      <c r="C5" s="3">
-        <v>10.45</v>
-      </c>
-      <c r="D5" s="3">
-        <f t="shared" si="0"/>
-        <v>-20900</v>
-      </c>
-      <c r="E5">
-        <f>SUM(D$3:D5)-SUM(B$3:B5)*C5*A5</f>
-        <v>660</v>
-      </c>
-      <c r="F5">
-        <f>SUM(D$3:D5)</f>
-        <v>21560</v>
-      </c>
-      <c r="G5" s="11">
-        <f t="shared" ref="G5:G21" si="1">A5*B5+G4</f>
-        <v>2000</v>
-      </c>
-      <c r="H5" s="14">
-        <f t="shared" ref="H5:H21" si="2">F5/C5</f>
-        <v>2063.1578947368421</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="17">
-      <c r="A6" s="4">
-        <v>2000</v>
-      </c>
-      <c r="B6" s="4">
+      <c r="C10" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="D10" s="16">
+        <f>A10*B10+D9</f>
+        <v>4000</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>-21400</v>
+      </c>
+      <c r="F10" s="1"/>
+      <c r="G10" s="24">
+        <f>G9+E10</f>
+        <v>44400</v>
+      </c>
+      <c r="H10" s="25">
+        <f>SUM(B$3:B10)*A10*C10</f>
+        <v>42800</v>
+      </c>
+      <c r="I10" s="12">
+        <f>SUM(E$3:E10)-SUM(B$3:B10)*C10*A10</f>
+        <v>1600</v>
+      </c>
+      <c r="J10" s="14">
+        <f>G10-H10-I10</f>
+        <v>0</v>
+      </c>
+      <c r="K10" s="10">
+        <f t="shared" si="1"/>
+        <v>4149.532710280374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="17">
+      <c r="A11" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="1">
+        <v>1</v>
+      </c>
+      <c r="C11" s="1">
+        <v>11.05</v>
+      </c>
+      <c r="D11" s="16">
+        <f>A11*B11+D10</f>
+        <v>6000</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>22100</v>
+      </c>
+      <c r="F11" s="1"/>
+      <c r="G11" s="24">
+        <f>G10+E11</f>
+        <v>66500</v>
+      </c>
+      <c r="H11" s="25">
+        <f>SUM(B$3:B11)*A11*C11</f>
+        <v>66300</v>
+      </c>
+      <c r="I11" s="12">
+        <f>SUM(E$3:E11)-SUM(B$3:B11)*C11*A11</f>
+        <v>199.99999999998545</v>
+      </c>
+      <c r="J11" s="14">
+        <f>G11-H11-I11</f>
+        <v>1.4551915228366852E-11</v>
+      </c>
+      <c r="K11" s="10">
+        <f t="shared" si="1"/>
+        <v>6018.0995475113123</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="17">
+      <c r="A12" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="1">
         <v>-1</v>
       </c>
-      <c r="C6" s="4">
-        <v>10.14</v>
-      </c>
-      <c r="D6" s="3">
-        <f t="shared" si="0"/>
-        <v>-20280</v>
-      </c>
-      <c r="E6" s="6">
-        <f>SUM(D$3:D6)-SUM(B$3:B6)*C6*A6</f>
-        <v>1280</v>
-      </c>
-      <c r="F6" s="6">
-        <f>SUM(D$3:D6)</f>
-        <v>1280</v>
-      </c>
-      <c r="G6" s="11">
-        <f t="shared" si="1"/>
+      <c r="C12" s="1">
+        <v>10.7</v>
+      </c>
+      <c r="D12" s="16">
+        <f>A12*B12+D11</f>
+        <v>4000</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>-21400</v>
+      </c>
+      <c r="F12" s="1"/>
+      <c r="G12" s="24">
+        <f>G11+E12</f>
+        <v>45100</v>
+      </c>
+      <c r="H12" s="25">
+        <f>SUM(B$3:B12)*A12*C12</f>
+        <v>42800</v>
+      </c>
+      <c r="I12" s="12">
+        <f>SUM(E$3:E12)-SUM(B$3:B12)*C12*A12</f>
+        <v>2300</v>
+      </c>
+      <c r="J12" s="14">
+        <f>G12-H12-I12</f>
         <v>0</v>
       </c>
-      <c r="H6" s="14">
-        <f t="shared" si="2"/>
-        <v>126.23274161735699</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="K12" s="10">
+        <f t="shared" si="1"/>
+        <v>4214.9532710280373</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="17">
+      <c r="A13" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="1">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
-        <v>10.44</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>20880</v>
-      </c>
-      <c r="E7">
-        <f>SUM(D$3:D7)-SUM(B$3:B7)*C7*A7</f>
-        <v>1280</v>
-      </c>
-      <c r="F7">
-        <f>SUM(D$3:D7)</f>
-        <v>22160</v>
-      </c>
-      <c r="G7" s="11">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="H7" s="14">
-        <f t="shared" si="2"/>
-        <v>2122.6053639846746</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="C13" s="1">
+        <v>11.02</v>
+      </c>
+      <c r="D13" s="16">
+        <f>A13*B13+D12</f>
+        <v>6000</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>22040</v>
+      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="24">
+        <f>G12+E13</f>
+        <v>67140</v>
+      </c>
+      <c r="H13" s="25">
+        <f>SUM(B$3:B13)*A13*C13</f>
+        <v>66120</v>
+      </c>
+      <c r="I13" s="12">
+        <f>SUM(E$3:E13)-SUM(B$3:B13)*C13*A13</f>
+        <v>1020</v>
+      </c>
+      <c r="J13" s="14">
+        <f>G13-H13-I13</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="10">
+        <f t="shared" si="1"/>
+        <v>6092.558983666062</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="17">
+      <c r="A14" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C14" s="1">
+        <v>10.55</v>
+      </c>
+      <c r="D14" s="16">
+        <f>A14*B14+D13</f>
+        <v>4000</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>-21100</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="24">
+        <f>G13+E14</f>
+        <v>46040</v>
+      </c>
+      <c r="H14" s="25">
+        <f>SUM(B$3:B14)*A14*C14</f>
+        <v>42200</v>
+      </c>
+      <c r="I14" s="12">
+        <f>SUM(E$3:E14)-SUM(B$3:B14)*C14*A14</f>
+        <v>3840</v>
+      </c>
+      <c r="J14" s="14">
+        <f>G14-H14-I14</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="10">
+        <f t="shared" si="1"/>
+        <v>4363.981042654028</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="17">
+      <c r="A15" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C15" s="1">
+        <v>10.23</v>
+      </c>
+      <c r="D15" s="16">
+        <f>A15*B15+D14</f>
+        <v>2000</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>-20460</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="24">
+        <f>G14+E15</f>
+        <v>25580</v>
+      </c>
+      <c r="H15" s="25">
+        <f>SUM(B$3:B15)*A15*C15</f>
+        <v>20460</v>
+      </c>
+      <c r="I15" s="12">
+        <f>SUM(E$3:E15)-SUM(B$3:B15)*C15*A15</f>
+        <v>5120</v>
+      </c>
+      <c r="J15" s="14">
+        <f>G15-H15-I15</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="10">
+        <f t="shared" si="1"/>
+        <v>2500.4887585532747</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="17">
+      <c r="A16" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B16" s="1">
         <v>1</v>
       </c>
-      <c r="C8" s="7">
-        <v>10.75</v>
-      </c>
-      <c r="D8" s="7">
-        <f t="shared" si="0"/>
-        <v>21500</v>
-      </c>
-      <c r="E8">
-        <f>SUM(D$3:D8)-SUM(B$3:B8)*C8*A8</f>
-        <v>660</v>
-      </c>
-      <c r="F8">
-        <f>SUM(D$3:D8)</f>
-        <v>43660</v>
-      </c>
-      <c r="G8" s="11">
-        <f t="shared" si="1"/>
+      <c r="C16" s="1">
+        <v>10.55</v>
+      </c>
+      <c r="D16" s="16">
+        <f>A16*B16+D15</f>
         <v>4000</v>
       </c>
-      <c r="H8" s="14">
-        <f t="shared" si="2"/>
-        <v>4061.3953488372094</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>21100</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="24">
+        <f>G15+E16</f>
+        <v>46680</v>
+      </c>
+      <c r="H16" s="25">
+        <f>SUM(B$3:B16)*A16*C16</f>
+        <v>42200</v>
+      </c>
+      <c r="I16" s="12">
+        <f>SUM(E$3:E16)-SUM(B$3:B16)*C16*A16</f>
+        <v>4480</v>
+      </c>
+      <c r="J16" s="14">
+        <f>G16-H16-I16</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="10">
+        <f t="shared" si="1"/>
+        <v>4424.644549763033</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="17">
+      <c r="A17" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B17" s="1">
+        <v>-1</v>
+      </c>
+      <c r="C17" s="1">
+        <v>10.220000000000001</v>
+      </c>
+      <c r="D17" s="16">
+        <f>A17*B17+D16</f>
+        <v>2000</v>
+      </c>
+      <c r="E17" s="1">
+        <f t="shared" si="0"/>
+        <v>-20440</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="24">
+        <f>G16+E17</f>
+        <v>26240</v>
+      </c>
+      <c r="H17" s="25">
+        <f>SUM(B$3:B17)*A17*C17</f>
+        <v>20440</v>
+      </c>
+      <c r="I17" s="12">
+        <f>SUM(E$3:E17)-SUM(B$3:B17)*C17*A17</f>
+        <v>5800</v>
+      </c>
+      <c r="J17" s="14">
+        <f>G17-H17-I17</f>
+        <v>0</v>
+      </c>
+      <c r="K17" s="10">
+        <f t="shared" si="1"/>
+        <v>2567.514677103718</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" ht="17">
+      <c r="A18" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B18" s="1">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
-        <v>11.07</v>
-      </c>
-      <c r="D9" s="7">
-        <f t="shared" si="0"/>
-        <v>22140</v>
-      </c>
-      <c r="E9">
-        <f>SUM(D$3:D9)-SUM(B$3:B9)*C9*A9</f>
-        <v>-620</v>
-      </c>
-      <c r="F9">
-        <f>SUM(D$3:D9)</f>
-        <v>65800</v>
-      </c>
-      <c r="G9" s="11">
-        <f t="shared" si="1"/>
+      <c r="C18" s="1">
+        <v>10.53</v>
+      </c>
+      <c r="D18" s="16">
+        <f>A18*B18+D17</f>
+        <v>4000</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" si="0"/>
+        <v>21060</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="24">
+        <f>G17+E18</f>
+        <v>47300</v>
+      </c>
+      <c r="H18" s="25">
+        <f>SUM(B$3:B18)*A18*C18</f>
+        <v>42120</v>
+      </c>
+      <c r="I18" s="12">
+        <f>SUM(E$3:E18)-SUM(B$3:B18)*C18*A18</f>
+        <v>5180</v>
+      </c>
+      <c r="J18" s="14">
+        <f>G18-H18-I18</f>
+        <v>0</v>
+      </c>
+      <c r="K18" s="10">
+        <f t="shared" si="1"/>
+        <v>4491.9278252611584</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="17">
+      <c r="A19" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19" s="1">
+        <v>10.85</v>
+      </c>
+      <c r="D19" s="16">
+        <f>A19*B19+D18</f>
         <v>6000</v>
       </c>
-      <c r="H9" s="14">
-        <f t="shared" si="2"/>
-        <v>5943.9927732610658</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="17">
-      <c r="A10" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="E19" s="1">
+        <f t="shared" si="0"/>
+        <v>21700</v>
+      </c>
+      <c r="F19" s="1"/>
+      <c r="G19" s="24">
+        <f>G18+E19</f>
+        <v>69000</v>
+      </c>
+      <c r="H19" s="25">
+        <f>SUM(B$3:B19)*A19*C19</f>
+        <v>65100</v>
+      </c>
+      <c r="I19" s="12">
+        <f>SUM(E$3:E19)-SUM(B$3:B19)*C19*A19</f>
+        <v>3900.0000000000073</v>
+      </c>
+      <c r="J19" s="14">
+        <f>G19-H19-I19</f>
+        <v>-7.2759576141834259E-12</v>
+      </c>
+      <c r="K19" s="10">
+        <f t="shared" si="1"/>
+        <v>6359.4470046082952</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" ht="17">
+      <c r="A20" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B20" s="1">
         <v>-1</v>
       </c>
-      <c r="C10" s="7">
-        <v>10.7</v>
-      </c>
-      <c r="D10" s="7">
-        <f t="shared" si="0"/>
-        <v>-21400</v>
-      </c>
-      <c r="E10">
-        <f>SUM(D$3:D10)-SUM(B$3:B10)*C10*A10</f>
-        <v>1600</v>
-      </c>
-      <c r="F10">
-        <f>SUM(D$3:D10)</f>
-        <v>44400</v>
-      </c>
-      <c r="G10" s="11">
-        <f t="shared" si="1"/>
+      <c r="C20" s="1">
+        <v>10.5</v>
+      </c>
+      <c r="D20" s="16">
+        <f>A20*B20+D19</f>
         <v>4000</v>
       </c>
-      <c r="H10" s="14">
-        <f t="shared" si="2"/>
-        <v>4149.532710280374</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="17">
-      <c r="A11" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="E20" s="1">
+        <f t="shared" si="0"/>
+        <v>-21000</v>
+      </c>
+      <c r="F20" s="1"/>
+      <c r="G20" s="24">
+        <f>G19+E20</f>
+        <v>48000</v>
+      </c>
+      <c r="H20" s="25">
+        <f>SUM(B$3:B20)*A20*C20</f>
+        <v>42000</v>
+      </c>
+      <c r="I20" s="12">
+        <f>SUM(E$3:E20)-SUM(B$3:B20)*C20*A20</f>
+        <v>6000</v>
+      </c>
+      <c r="J20" s="14">
+        <f>G20-H20-I20</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="10">
+        <f t="shared" si="1"/>
+        <v>4571.4285714285716</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="18" customHeight="1">
+      <c r="A21" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B21" s="1">
         <v>1</v>
       </c>
-      <c r="C11" s="7">
-        <v>11.05</v>
-      </c>
-      <c r="D11" s="7">
-        <f t="shared" si="0"/>
-        <v>22100</v>
-      </c>
-      <c r="E11">
-        <f>SUM(D$3:D11)-SUM(B$3:B11)*C11*A11</f>
-        <v>199.99999999998545</v>
-      </c>
-      <c r="F11">
-        <f>SUM(D$3:D11)</f>
-        <v>66500</v>
-      </c>
-      <c r="G11" s="11">
-        <f t="shared" si="1"/>
+      <c r="C21" s="1">
+        <v>10.82</v>
+      </c>
+      <c r="D21" s="16">
+        <f>A21*B21+D20</f>
         <v>6000</v>
       </c>
-      <c r="H11" s="14">
-        <f t="shared" si="2"/>
-        <v>6018.0995475113123</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17">
-      <c r="A12" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B12" s="7">
-        <v>-1</v>
-      </c>
-      <c r="C12" s="7">
-        <v>10.7</v>
-      </c>
-      <c r="D12" s="7">
-        <f t="shared" si="0"/>
-        <v>-21400</v>
-      </c>
-      <c r="E12">
-        <f>SUM(D$3:D12)-SUM(B$3:B12)*C12*A12</f>
-        <v>2300</v>
-      </c>
-      <c r="F12">
-        <f>SUM(D$3:D12)</f>
-        <v>45100</v>
-      </c>
-      <c r="G12" s="11">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="H12" s="14">
-        <f t="shared" si="2"/>
-        <v>4214.9532710280373</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="17">
-      <c r="A13" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B13" s="7">
-        <v>1</v>
-      </c>
-      <c r="C13" s="7">
-        <v>11.02</v>
-      </c>
-      <c r="D13" s="7">
-        <f t="shared" si="0"/>
-        <v>22040</v>
-      </c>
-      <c r="E13">
-        <f>SUM(D$3:D13)-SUM(B$3:B13)*C13*A13</f>
-        <v>1020</v>
-      </c>
-      <c r="F13">
-        <f>SUM(D$3:D13)</f>
-        <v>67140</v>
-      </c>
-      <c r="G13" s="11">
-        <f t="shared" si="1"/>
-        <v>6000</v>
-      </c>
-      <c r="H13" s="14">
-        <f t="shared" si="2"/>
-        <v>6092.558983666062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="17">
-      <c r="A14" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B14" s="7">
-        <v>-1</v>
-      </c>
-      <c r="C14" s="7">
-        <v>10.55</v>
-      </c>
-      <c r="D14" s="7">
-        <f t="shared" si="0"/>
-        <v>-21100</v>
-      </c>
-      <c r="E14">
-        <f>SUM(D$3:D14)-SUM(B$3:B14)*C14*A14</f>
-        <v>3840</v>
-      </c>
-      <c r="F14">
-        <f>SUM(D$3:D14)</f>
-        <v>46040</v>
-      </c>
-      <c r="G14" s="11">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="H14" s="14">
-        <f t="shared" si="2"/>
-        <v>4363.981042654028</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="17">
-      <c r="A15" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B15" s="7">
-        <v>-1</v>
-      </c>
-      <c r="C15" s="7">
-        <v>10.23</v>
-      </c>
-      <c r="D15" s="7">
-        <f t="shared" si="0"/>
-        <v>-20460</v>
-      </c>
-      <c r="E15">
-        <f>SUM(D$3:D15)-SUM(B$3:B15)*C15*A15</f>
-        <v>5120</v>
-      </c>
-      <c r="F15">
-        <f>SUM(D$3:D15)</f>
-        <v>25580</v>
-      </c>
-      <c r="G15" s="11">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="H15" s="14">
-        <f t="shared" si="2"/>
-        <v>2500.4887585532747</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="17">
-      <c r="A16" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B16" s="7">
-        <v>1</v>
-      </c>
-      <c r="C16" s="7">
-        <v>10.55</v>
-      </c>
-      <c r="D16" s="7">
-        <f t="shared" si="0"/>
-        <v>21100</v>
-      </c>
-      <c r="E16">
-        <f>SUM(D$3:D16)-SUM(B$3:B16)*C16*A16</f>
-        <v>4480</v>
-      </c>
-      <c r="F16">
-        <f>SUM(D$3:D16)</f>
-        <v>46680</v>
-      </c>
-      <c r="G16" s="11">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="H16" s="14">
-        <f t="shared" si="2"/>
-        <v>4424.644549763033</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="17">
-      <c r="A17" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B17" s="7">
-        <v>-1</v>
-      </c>
-      <c r="C17" s="7">
-        <v>10.220000000000001</v>
-      </c>
-      <c r="D17" s="7">
-        <f t="shared" si="0"/>
-        <v>-20440</v>
-      </c>
-      <c r="E17">
-        <f>SUM(D$3:D17)-SUM(B$3:B17)*C17*A17</f>
-        <v>5800</v>
-      </c>
-      <c r="F17">
-        <f>SUM(D$3:D17)</f>
-        <v>26240</v>
-      </c>
-      <c r="G17" s="11">
-        <f t="shared" si="1"/>
-        <v>2000</v>
-      </c>
-      <c r="H17" s="14">
-        <f t="shared" si="2"/>
-        <v>2567.514677103718</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="17">
-      <c r="A18" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B18" s="7">
-        <v>1</v>
-      </c>
-      <c r="C18" s="7">
-        <v>10.53</v>
-      </c>
-      <c r="D18" s="7">
-        <f t="shared" si="0"/>
-        <v>21060</v>
-      </c>
-      <c r="E18">
-        <f>SUM(D$3:D18)-SUM(B$3:B18)*C18*A18</f>
-        <v>5180</v>
-      </c>
-      <c r="F18">
-        <f>SUM(D$3:D18)</f>
-        <v>47300</v>
-      </c>
-      <c r="G18" s="11">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="H18" s="14">
-        <f t="shared" si="2"/>
-        <v>4491.9278252611584</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="17">
-      <c r="A19" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B19" s="7">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <v>10.85</v>
-      </c>
-      <c r="D19" s="7">
-        <f t="shared" si="0"/>
-        <v>21700</v>
-      </c>
-      <c r="E19">
-        <f>SUM(D$3:D19)-SUM(B$3:B19)*C19*A19</f>
-        <v>3900.0000000000073</v>
-      </c>
-      <c r="F19">
-        <f>SUM(D$3:D19)</f>
-        <v>69000</v>
-      </c>
-      <c r="G19" s="11">
-        <f t="shared" si="1"/>
-        <v>6000</v>
-      </c>
-      <c r="H19" s="14">
-        <f t="shared" si="2"/>
-        <v>6359.4470046082952</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="17">
-      <c r="A20" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B20" s="7">
-        <v>-1</v>
-      </c>
-      <c r="C20" s="7">
-        <v>10.5</v>
-      </c>
-      <c r="D20" s="7">
-        <f t="shared" si="0"/>
-        <v>-21000</v>
-      </c>
-      <c r="E20">
-        <f>SUM(D$3:D20)-SUM(B$3:B20)*C20*A20</f>
-        <v>6000</v>
-      </c>
-      <c r="F20">
-        <f>SUM(D$3:D20)</f>
-        <v>48000</v>
-      </c>
-      <c r="G20" s="11">
-        <f t="shared" si="1"/>
-        <v>4000</v>
-      </c>
-      <c r="H20" s="14">
-        <f t="shared" si="2"/>
-        <v>4571.4285714285716</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="17">
-      <c r="A21" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B21" s="7">
-        <v>1</v>
-      </c>
-      <c r="C21" s="7">
-        <v>10.82</v>
-      </c>
-      <c r="D21" s="7">
+      <c r="E21" s="1">
         <f t="shared" si="0"/>
         <v>21640</v>
       </c>
-      <c r="E21">
-        <f>SUM(D$3:D21)-SUM(B$3:B21)*C21*A21</f>
+      <c r="F21" s="1"/>
+      <c r="G21" s="24">
+        <f>G20+E21</f>
+        <v>69640</v>
+      </c>
+      <c r="H21" s="25">
+        <f>SUM(B$3:B21)*A21*C21</f>
+        <v>64920</v>
+      </c>
+      <c r="I21" s="12">
+        <f>SUM(E$3:E21)-SUM(B$3:B21)*C21*A21</f>
         <v>4720</v>
       </c>
-      <c r="F21">
-        <f>SUM(D$3:D21)</f>
-        <v>69640</v>
-      </c>
-      <c r="G21" s="11">
-        <f t="shared" si="1"/>
-        <v>6000</v>
-      </c>
-      <c r="H21" s="14">
-        <f t="shared" si="2"/>
+      <c r="J21" s="14">
+        <f>G21-H21-I21</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="10">
+        <f t="shared" si="1"/>
         <v>6436.2292051756003</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="17">
-      <c r="D22" s="2"/>
+    <row r="22" spans="1:11" ht="25" customHeight="1">
+      <c r="A22" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <f>SUM(B3:B21)</f>
+        <v>3</v>
+      </c>
+      <c r="C22" s="17"/>
+      <c r="D22" s="17"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="27">
+        <f>MAX(H3:H21)</f>
+        <v>66420</v>
+      </c>
+      <c r="I22" s="22">
+        <f>I21/H22</f>
+        <v>7.1062932851550742E-2</v>
+      </c>
+      <c r="J22" s="19"/>
+      <c r="K22" s="20"/>
+    </row>
+    <row r="23" spans="1:11" ht="28" customHeight="1">
+      <c r="A23" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B23" s="17">
+        <f>COUNT(B3:B21)</f>
+        <v>19</v>
+      </c>
+      <c r="H23" s="28">
+        <f>SUM(H3:H21)/COUNT(H3:H21)</f>
+        <v>40666.315789473687</v>
+      </c>
+      <c r="I23" s="29">
+        <f>I21/H23</f>
+        <v>0.11606657520772395</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="32" customHeight="1">
+      <c r="A24" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="30">
+        <f>(B23-B22)/2</f>
+        <v>8</v>
+      </c>
+      <c r="I24" s="29">
+        <f>I22/B24</f>
+        <v>8.8828666064438427E-3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <ignoredErrors>
+    <ignoredError sqref="H20 H3:H19 I4:I21" formulaRange="1"/>
+  </ignoredErrors>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1203,67 +1584,67 @@
   <cols>
     <col min="4" max="4" width="14.33203125" customWidth="1"/>
     <col min="7" max="7" width="13.5" customWidth="1"/>
-    <col min="8" max="8" width="12.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.5" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="8" t="s">
+      <c r="B2" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="4"/>
+      <c r="E2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="4"/>
+      <c r="G2" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F2" s="8"/>
-      <c r="G2" s="10" t="s">
+      <c r="H2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="3" spans="1:8" ht="17">
-      <c r="A3" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B3" s="7">
+      <c r="A3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="7">
+      <c r="C3" s="3">
         <v>10.44</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="3">
         <f t="shared" ref="D3:D17" si="0">A3*C3*B3</f>
         <v>20880</v>
       </c>
-      <c r="G3" s="11">
+      <c r="G3" s="7">
         <f>A3*B3</f>
         <v>2000</v>
       </c>
-      <c r="H3" s="12"/>
+      <c r="H3" s="8"/>
     </row>
     <row r="4" spans="1:8" ht="17">
-      <c r="A4" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B4" s="7">
+      <c r="A4" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="3">
         <v>10.75</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="3">
         <f t="shared" si="0"/>
         <v>21500</v>
       </c>
@@ -1275,26 +1656,26 @@
         <f>SUM(D$3:D4)</f>
         <v>42380</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="7">
         <f>G3+A4*B4</f>
         <v>4000</v>
       </c>
-      <c r="H4" s="12">
+      <c r="H4" s="8">
         <f t="shared" ref="H4:H16" si="1">F4/C4</f>
         <v>3942.3255813953488</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="17">
-      <c r="A5" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B5" s="7">
+      <c r="A5" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="3">
         <v>1</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="3">
         <v>11.07</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="3">
         <f t="shared" si="0"/>
         <v>22140</v>
       </c>
@@ -1306,26 +1687,26 @@
         <f>SUM(D$3:D5)</f>
         <v>64520</v>
       </c>
-      <c r="G5" s="11">
+      <c r="G5" s="7">
         <f t="shared" ref="G5:G17" si="2">G4+A5*B5</f>
         <v>6000</v>
       </c>
-      <c r="H5" s="12">
+      <c r="H5" s="8">
         <f t="shared" si="1"/>
         <v>5828.3649503161696</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="17">
-      <c r="A6" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B6" s="7">
+      <c r="A6" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="3">
         <v>-1</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="3">
         <v>10.7</v>
       </c>
-      <c r="D6" s="7">
+      <c r="D6" s="3">
         <f t="shared" si="0"/>
         <v>-21400</v>
       </c>
@@ -1337,26 +1718,26 @@
         <f>SUM(D$3:D6)</f>
         <v>43120</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="7">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="H6" s="12">
+      <c r="H6" s="8">
         <f t="shared" si="1"/>
         <v>4029.9065420560751</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="17">
-      <c r="A7" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B7" s="7">
+      <c r="A7" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="3">
         <v>1</v>
       </c>
-      <c r="C7" s="7">
+      <c r="C7" s="3">
         <v>11.05</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="3">
         <f t="shared" si="0"/>
         <v>22100</v>
       </c>
@@ -1368,26 +1749,26 @@
         <f>SUM(D$3:D7)</f>
         <v>65220</v>
       </c>
-      <c r="G7" s="11">
+      <c r="G7" s="7">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="H7" s="12">
+      <c r="H7" s="8">
         <f t="shared" si="1"/>
         <v>5902.2624434389136</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="17">
-      <c r="A8" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B8" s="7">
+      <c r="A8" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B8" s="3">
         <v>-1</v>
       </c>
-      <c r="C8" s="7">
+      <c r="C8" s="3">
         <v>10.7</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="3">
         <f t="shared" si="0"/>
         <v>-21400</v>
       </c>
@@ -1399,26 +1780,26 @@
         <f>SUM(D$3:D8)</f>
         <v>43820</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="7">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="H8" s="12">
+      <c r="H8" s="8">
         <f t="shared" si="1"/>
         <v>4095.3271028037384</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="17">
-      <c r="A9" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B9" s="7">
+      <c r="A9" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B9" s="3">
         <v>1</v>
       </c>
-      <c r="C9" s="7">
+      <c r="C9" s="3">
         <v>11.02</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="3">
         <f t="shared" si="0"/>
         <v>22040</v>
       </c>
@@ -1430,26 +1811,26 @@
         <f>SUM(D$3:D9)</f>
         <v>65860</v>
       </c>
-      <c r="G9" s="11">
+      <c r="G9" s="7">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="H9" s="12">
+      <c r="H9" s="8">
         <f t="shared" si="1"/>
         <v>5976.4065335753176</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="17">
-      <c r="A10" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B10" s="7">
+      <c r="A10" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="3">
         <v>-1</v>
       </c>
-      <c r="C10" s="7">
+      <c r="C10" s="3">
         <v>10.55</v>
       </c>
-      <c r="D10" s="7">
+      <c r="D10" s="3">
         <f t="shared" si="0"/>
         <v>-21100</v>
       </c>
@@ -1461,26 +1842,26 @@
         <f>SUM(D$3:D10)</f>
         <v>44760</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="7">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="H10" s="12">
+      <c r="H10" s="8">
         <f t="shared" si="1"/>
         <v>4242.654028436019</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="17">
-      <c r="A11" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B11" s="7">
+      <c r="A11" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="3">
         <v>-1</v>
       </c>
-      <c r="C11" s="7">
+      <c r="C11" s="3">
         <v>10.23</v>
       </c>
-      <c r="D11" s="7">
+      <c r="D11" s="3">
         <f t="shared" si="0"/>
         <v>-20460</v>
       </c>
@@ -1492,26 +1873,26 @@
         <f>SUM(D$3:D11)</f>
         <v>24300</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="H11" s="12">
+      <c r="H11" s="8">
         <f t="shared" si="1"/>
         <v>2375.3665689149561</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="17">
-      <c r="A12" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B12" s="7">
+      <c r="A12" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="3">
         <v>1</v>
       </c>
-      <c r="C12" s="7">
+      <c r="C12" s="3">
         <v>10.55</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="3">
         <f t="shared" si="0"/>
         <v>21100</v>
       </c>
@@ -1523,26 +1904,26 @@
         <f>SUM(D$3:D12)</f>
         <v>45400</v>
       </c>
-      <c r="G12" s="11">
+      <c r="G12" s="7">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="H12" s="12">
+      <c r="H12" s="8">
         <f t="shared" si="1"/>
         <v>4303.317535545023</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17">
-      <c r="A13" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B13" s="7">
+      <c r="A13" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="3">
         <v>-1</v>
       </c>
-      <c r="C13" s="7">
+      <c r="C13" s="3">
         <v>10.220000000000001</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="3">
         <f t="shared" si="0"/>
         <v>-20440</v>
       </c>
@@ -1554,26 +1935,26 @@
         <f>SUM(D$3:D13)</f>
         <v>24960</v>
       </c>
-      <c r="G13" s="11">
+      <c r="G13" s="7">
         <f t="shared" si="2"/>
         <v>2000</v>
       </c>
-      <c r="H13" s="12">
+      <c r="H13" s="8">
         <f t="shared" si="1"/>
         <v>2442.2700587084146</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="17">
-      <c r="A14" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B14" s="7">
+      <c r="A14" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="3">
         <v>1</v>
       </c>
-      <c r="C14" s="7">
+      <c r="C14" s="3">
         <v>10.53</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="3">
         <f t="shared" si="0"/>
         <v>21060</v>
       </c>
@@ -1585,26 +1966,26 @@
         <f>SUM(D$3:D14)</f>
         <v>46020</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="7">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="H14" s="12">
+      <c r="H14" s="8">
         <f t="shared" si="1"/>
         <v>4370.3703703703704</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="17">
-      <c r="A15" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B15" s="7">
+      <c r="A15" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="3">
         <v>1</v>
       </c>
-      <c r="C15" s="7">
+      <c r="C15" s="3">
         <v>10.85</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="3">
         <f t="shared" si="0"/>
         <v>21700</v>
       </c>
@@ -1616,26 +1997,26 @@
         <f>SUM(D$3:D15)</f>
         <v>67720</v>
       </c>
-      <c r="G15" s="11">
+      <c r="G15" s="7">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="H15" s="12">
+      <c r="H15" s="8">
         <f t="shared" si="1"/>
         <v>6241.4746543778801</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17">
-      <c r="A16" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B16" s="7">
+      <c r="A16" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B16" s="3">
         <v>-1</v>
       </c>
-      <c r="C16" s="7">
+      <c r="C16" s="3">
         <v>10.5</v>
       </c>
-      <c r="D16" s="7">
+      <c r="D16" s="3">
         <f t="shared" si="0"/>
         <v>-21000</v>
       </c>
@@ -1647,26 +2028,26 @@
         <f>SUM(D$3:D16)</f>
         <v>46720</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="7">
         <f t="shared" si="2"/>
         <v>4000</v>
       </c>
-      <c r="H16" s="12">
+      <c r="H16" s="8">
         <f t="shared" si="1"/>
         <v>4449.5238095238092</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="17">
-      <c r="A17" s="7">
-        <v>2000</v>
-      </c>
-      <c r="B17" s="7">
+      <c r="A17" s="3">
+        <v>2000</v>
+      </c>
+      <c r="B17" s="3">
         <v>1</v>
       </c>
-      <c r="C17" s="7">
+      <c r="C17" s="3">
         <v>10.82</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="3">
         <f t="shared" si="0"/>
         <v>21640</v>
       </c>
@@ -1678,11 +2059,11 @@
         <f>SUM(D$3:D17)</f>
         <v>68360</v>
       </c>
-      <c r="G17" s="11">
+      <c r="G17" s="7">
         <f t="shared" si="2"/>
         <v>6000</v>
       </c>
-      <c r="H17" s="12">
+      <c r="H17" s="8">
         <f>F17/C17</f>
         <v>6317.9297597042514</v>
       </c>
